--- a/data/trans_bre/IP18A04-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP18A04-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,8 +523,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,15 +539,13 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +567,17 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
           <t>2015</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -604,13 +590,11 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-1,7</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>13,05</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,69</t>
+          <t>-26,26%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-13,35%</t>
+          <t>149,28%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-10,37%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>6,89%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>12,3%</t>
+          <t>-7,97%</t>
         </is>
       </c>
     </row>
@@ -668,42 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 3,49</t>
+          <t>-12,64; 11,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 3,87</t>
+          <t>-7,61; 32,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 5,23</t>
+          <t>-20,27; 23,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,25; 19,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-47,05; 38,61</t>
+          <t>-97,6; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-41,86; 36,57</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-33,22; 88,66</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-39,56; 88,03</t>
+          <t>-69,69; 213,33</t>
         </is>
       </c>
     </row>
@@ -735,27 +699,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-11,27</t>
+          <t>-23,72%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-23,72%</t>
+          <t>-11,88%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-11,88%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
           <t>-31,91%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-25,84%</t>
         </is>
       </c>
     </row>
@@ -783,34 +737,24 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-37,21; 18,56</t>
+          <t>-59,85; 36,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-59,85; 36,4</t>
+          <t>-52,27; 63,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,27; 63,67</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
           <t>-64,21; 35,02</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-70,76; 72,32</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>-13,35%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>21,48%</t>
+          <t>-10,37%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>9,0%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-3,32%</t>
+          <t>6,89%</t>
         </is>
       </c>
     </row>
@@ -868,49 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 6,67</t>
+          <t>-7,12; 3,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 6,88</t>
+          <t>-6,66; 3,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 6,8</t>
+          <t>-3,57; 5,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-23,72; 21,85</t>
+          <t>-47,05; 38,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-34,44; 110,3</t>
+          <t>-41,86; 36,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-29,19; 68,61</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-32,3; 93,88</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-45,73; 78,86</t>
+          <t>-33,22; 88,66</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,05</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,8</t>
+          <t>-30,25%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-26,26%</t>
+          <t>18,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>149,28%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-7,97%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>28,71%</t>
+          <t>-15,48%</t>
         </is>
       </c>
     </row>
@@ -968,49 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 11,43</t>
+          <t>-7,81; 2,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 32,52</t>
+          <t>-4,61; 6,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-20,27; 23,65</t>
+          <t>-6,54; 3,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-33,53; 68,88</t>
+          <t>-64,87; 44,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,83; 99,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-97,6; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-69,69; 213,33</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-43,55; 416,39</t>
+          <t>-56,44; 60,66</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>21,48%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-30,25%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>18,82%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-15,48%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>5,83%</t>
+          <t>9,0%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 2,5</t>
+          <t>-3,26; 6,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 6,92</t>
+          <t>-4,83; 6,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 3,65</t>
+          <t>-3,83; 6,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-19,13; 26,3</t>
+          <t>-34,44; 110,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-64,87; 44,55</t>
+          <t>-29,19; 68,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-39,83; 99,48</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-56,44; 60,66</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-27,43; 59,11</t>
+          <t>-32,3; 93,88</t>
         </is>
       </c>
     </row>
@@ -1135,27 +1019,17 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>-11,58%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-11,58%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
           <t>-6,23%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>5,9%</t>
         </is>
       </c>
     </row>
@@ -1183,38 +1057,28 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 13,67</t>
+          <t>-33,15; 14,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-33,15; 14,53</t>
+          <t>-16,84; 32,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 32,3</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
           <t>-30,29; 21,53</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-17,78; 34,96</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/IP18A04-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP18A04-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 11,43</t>
+          <t>-14,09; 11,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 32,52</t>
+          <t>-4,3; 35,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-20,27; 23,65</t>
+          <t>-21,17; 23,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -662,12 +662,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-97,6; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-69,69; 213,33</t>
+          <t>-72,81; 210,52</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 3,91</t>
+          <t>-11,57; 3,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 5,98</t>
+          <t>-8,9; 5,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 3,2</t>
+          <t>-11,08; 3,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-59,85; 36,4</t>
+          <t>-61,11; 34,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,27; 63,67</t>
+          <t>-52,51; 55,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-64,21; 35,02</t>
+          <t>-69,6; 42,36</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 3,49</t>
+          <t>-6,95; 3,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 3,87</t>
+          <t>-6,84; 3,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 5,23</t>
+          <t>-3,97; 4,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-47,05; 38,61</t>
+          <t>-47,23; 38,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-41,86; 36,57</t>
+          <t>-43,74; 37,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-33,22; 88,66</t>
+          <t>-38,01; 73,89</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 2,5</t>
+          <t>-8,01; 2,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 6,92</t>
+          <t>-3,96; 7,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 3,65</t>
+          <t>-7,56; 3,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-64,87; 44,55</t>
+          <t>-66,44; 40,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,83; 99,48</t>
+          <t>-32,0; 112,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-56,44; 60,66</t>
+          <t>-58,48; 65,63</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 6,67</t>
+          <t>-2,9; 6,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 6,88</t>
+          <t>-4,73; 6,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 6,8</t>
+          <t>-4,61; 6,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-34,44; 110,3</t>
+          <t>-30,83; 119,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-29,19; 68,61</t>
+          <t>-30,73; 58,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-32,3; 93,88</t>
+          <t>-36,1; 81,62</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 1,31</t>
+          <t>-4,01; 1,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 3,48</t>
+          <t>-2,89; 3,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 1,98</t>
+          <t>-3,31; 1,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-33,15; 14,53</t>
+          <t>-33,53; 16,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 32,3</t>
+          <t>-20,31; 28,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-30,29; 21,53</t>
+          <t>-28,23; 22,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP18A04-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP18A04-Habitat-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,09; 11,74</t>
+          <t>-12,06; 13,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 35,54</t>
+          <t>-6,47; 35,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,17; 23,9</t>
+          <t>-24,03; 20,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -662,19 +662,19 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,41; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-72,81; 210,52</t>
+          <t>-80,38; 170,82</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 3,85</t>
+          <t>-11,06; 4,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 5,72</t>
+          <t>-9,24; 5,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 3,14</t>
+          <t>-11,1; 3,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-61,11; 34,0</t>
+          <t>-59,19; 44,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,51; 55,47</t>
+          <t>-54,61; 56,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,6; 42,36</t>
+          <t>-67,06; 42,27</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 3,68</t>
+          <t>-6,86; 4,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 3,86</t>
+          <t>-7,03; 4,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 4,83</t>
+          <t>-3,96; 5,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-47,23; 38,0</t>
+          <t>-47,32; 40,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-43,74; 37,84</t>
+          <t>-42,83; 39,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-38,01; 73,89</t>
+          <t>-37,35; 83,45</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 2,35</t>
+          <t>-8,09; 2,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 7,41</t>
+          <t>-4,08; 7,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 3,81</t>
+          <t>-6,76; 3,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-66,44; 40,58</t>
+          <t>-65,09; 37,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,0; 112,77</t>
+          <t>-35,75; 113,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-58,48; 65,63</t>
+          <t>-55,79; 64,27</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 6,89</t>
+          <t>-3,55; 6,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 6,41</t>
+          <t>-5,43; 6,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 6,04</t>
+          <t>-4,16; 6,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-30,83; 119,99</t>
+          <t>-34,66; 117,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-30,73; 58,82</t>
+          <t>-32,96; 60,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-36,1; 81,62</t>
+          <t>-34,09; 88,88</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 1,49</t>
+          <t>-3,82; 1,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 3,13</t>
+          <t>-2,58; 3,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 1,95</t>
+          <t>-3,15; 2,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-33,53; 16,26</t>
+          <t>-32,24; 17,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-20,31; 28,14</t>
+          <t>-18,78; 31,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-28,23; 22,46</t>
+          <t>-27,59; 25,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP18A04-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP18A04-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,05</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-3,89</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-26,26%</t>
+          <t>-23,77%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>149,28%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-7,97%</t>
+          <t>-26,7%</t>
         </is>
       </c>
     </row>
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 13,87</t>
+          <t>-9,48; 3,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 35,2</t>
+          <t>-5,51; 7,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,03; 20,68</t>
+          <t>-11,31; 3,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,04; 39,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-68,41; —</t>
+          <t>-36,02; 88,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-80,38; 170,82</t>
+          <t>-61,65; 35,43</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,57</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,12</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-23,72%</t>
+          <t>-13,35%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-11,88%</t>
+          <t>-10,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-31,91%</t>
+          <t>6,89%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 4,24</t>
+          <t>-7,12; 3,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 5,43</t>
+          <t>-6,66; 3,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 3,32</t>
+          <t>-3,57; 5,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-59,19; 44,52</t>
+          <t>-47,05; 38,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-54,61; 56,32</t>
+          <t>-41,86; 36,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-67,06; 42,27</t>
+          <t>-33,22; 88,66</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>1,79</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>-1,37</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,59</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-13,35%</t>
+          <t>-30,25%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-10,37%</t>
+          <t>18,82%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>-15,48%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 4,0</t>
+          <t>-7,81; 2,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 4,07</t>
+          <t>-4,61; 6,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 5,26</t>
+          <t>-6,54; 3,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-47,32; 40,4</t>
+          <t>-64,87; 44,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-42,83; 39,75</t>
+          <t>-39,83; 99,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-37,35; 83,45</t>
+          <t>-56,44; 60,66</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-30,25%</t>
+          <t>21,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,82%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-15,48%</t>
+          <t>9,0%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 2,01</t>
+          <t>-3,26; 6,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 7,56</t>
+          <t>-4,83; 6,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 3,68</t>
+          <t>-3,83; 6,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-65,09; 37,02</t>
+          <t>-34,44; 110,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,75; 113,55</t>
+          <t>-29,19; 68,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-55,79; 64,27</t>
+          <t>-32,3; 93,88</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>21,48%</t>
+          <t>-11,58%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>-6,23%</t>
         </is>
       </c>
     </row>
@@ -962,124 +962,44 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 6,65</t>
+          <t>-4,0; 1,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 6,45</t>
+          <t>-2,32; 3,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 6,26</t>
+          <t>-3,54; 1,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-34,66; 117,19</t>
+          <t>-33,15; 14,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-32,96; 60,95</t>
+          <t>-16,84; 32,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-34,09; 88,88</t>
+          <t>-30,29; 21,53</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-1,23</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,45</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,63</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-11,58%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>3,68%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-6,23%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-3,82; 1,61</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,58; 3,51</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-3,15; 2,17</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-32,24; 17,78</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-18,78; 31,98</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-27,59; 25,55</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1088,7 +1008,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
